--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="328">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,31 +76,43 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.996+/-0.001</t>
   </si>
   <si>
-    <t>0.797+/-0.0</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.99+/-0.008</t>
-  </si>
-  <si>
-    <t>0.493+/-0.071</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.989+/-0.013</t>
-  </si>
-  <si>
-    <t>0.176+/-0.041</t>
-  </si>
-  <si>
-    <t>0.133</t>
+    <t>0.798+/-0.0</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.989+/-0.007</t>
+  </si>
+  <si>
+    <t>0.498+/-0.054</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.992+/-0.012</t>
+  </si>
+  <si>
+    <t>0.174+/-0.034</t>
+  </si>
+  <si>
+    <t>0.163</t>
   </si>
   <si>
     <t>0.003+/-0.0</t>
@@ -112,37 +124,37 @@
     <t>0.802+/-0.0</t>
   </si>
   <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.564+/-0.011</t>
-  </si>
-  <si>
-    <t>0.549+/-0.112</t>
-  </si>
-  <si>
-    <t>0.489</t>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.562+/-0.01</t>
+  </si>
+  <si>
+    <t>0.549+/-0.106</t>
+  </si>
+  <si>
+    <t>0.478</t>
   </si>
   <si>
     <t>0.092+/-0.004</t>
   </si>
   <si>
-    <t>0.088+/-0.032</t>
+    <t>0.088+/-0.031</t>
   </si>
   <si>
     <t>0.059</t>
   </si>
   <si>
-    <t>0.236+/-0.036</t>
+    <t>0.228+/-0.019</t>
   </si>
   <si>
     <t>0.556+/-0.014</t>
   </si>
   <si>
-    <t>0.555+/-0.0</t>
-  </si>
-  <si>
-    <t>0.54</t>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.541</t>
   </si>
   <si>
     <t>0.263+/-0.004</t>
@@ -151,787 +163,814 @@
     <t>0.263+/-0.014</t>
   </si>
   <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.67+/-0.02</t>
-  </si>
-  <si>
-    <t>0.669+/-0.028</t>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.669+/-0.021</t>
+  </si>
+  <si>
+    <t>0.668+/-0.029</t>
   </si>
   <si>
     <t>0.632</t>
   </si>
   <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.684+/-0.004</t>
-  </si>
-  <si>
-    <t>0.679+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.304+/-0.002</t>
-  </si>
-  <si>
-    <t>0.297+/-0.026</t>
-  </si>
-  <si>
-    <t>0.281</t>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.683+/-0.005</t>
+  </si>
+  <si>
+    <t>0.68+/-0.0</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.303+/-0.003</t>
+  </si>
+  <si>
+    <t>0.298+/-0.027</t>
+  </si>
+  <si>
+    <t>0.284</t>
   </si>
   <si>
     <t>0.442+/-0.013</t>
   </si>
   <si>
-    <t>0.435+/-0.043</t>
+    <t>0.435+/-0.044</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.855+/-0.007</t>
+  </si>
+  <si>
+    <t>0.794+/-0.0</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.72+/-0.023</t>
+  </si>
+  <si>
+    <t>0.48+/-0.048</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.459+/-0.045</t>
+  </si>
+  <si>
+    <t>0.299+/-0.06</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>4.024+/-1.603</t>
+  </si>
+  <si>
+    <t>0.862+/-0.004</t>
+  </si>
+  <si>
+    <t>0.796+/-0.0</t>
+  </si>
+  <si>
+    <t>0.871+/-0.011</t>
+  </si>
+  <si>
+    <t>0.485+/-0.059</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.372+/-0.026</t>
+  </si>
+  <si>
+    <t>0.214+/-0.043</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.081+/-0.009</t>
+  </si>
+  <si>
+    <t>0.853+/-0.006</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.831+/-0.044</t>
+  </si>
+  <si>
+    <t>0.485+/-0.054</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.339+/-0.035</t>
+  </si>
+  <si>
+    <t>0.207+/-0.034</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.096+/-0.009</t>
+  </si>
+  <si>
+    <t>0.812+/-0.001</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.7+/-0.011</t>
+  </si>
+  <si>
+    <t>0.609+/-0.095</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.115+/-0.007</t>
+  </si>
+  <si>
+    <t>0.092+/-0.034</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>14.609+/-1.286</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.982+/-0.009</t>
+  </si>
+  <si>
+    <t>0.468+/-0.073</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.994+/-0.013</t>
+  </si>
+  <si>
+    <t>0.123+/-0.032</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.004+/-0.002</t>
+  </si>
+  <si>
+    <t>0.851+/-0.001</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.522+/-0.022</t>
+  </si>
+  <si>
+    <t>0.502+/-0.141</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>0.07+/-0.007</t>
+  </si>
+  <si>
+    <t>0.067+/-0.016</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.356+/-0.049</t>
+  </si>
+  <si>
+    <t>0.676+/-0.011</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.244+/-0.005</t>
+  </si>
+  <si>
+    <t>0.245+/-0.02</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.553+/-0.014</t>
+  </si>
+  <si>
+    <t>0.554+/-0.035</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>0.009+/-0.005</t>
+  </si>
+  <si>
+    <t>0.737+/-0.003</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.253+/-0.003</t>
+  </si>
+  <si>
+    <t>0.252+/-0.022</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.384+/-0.009</t>
+  </si>
+  <si>
+    <t>0.384+/-0.044</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.009+/-0.002</t>
+  </si>
+  <si>
+    <t>0.888+/-0.004</t>
+  </si>
+  <si>
+    <t>0.838+/-0.0</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.728+/-0.028</t>
+  </si>
+  <si>
+    <t>0.428+/-0.049</t>
   </si>
   <si>
     <t>0.381</t>
   </si>
   <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.856+/-0.004</t>
-  </si>
-  <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
-    <t>0.784</t>
-  </si>
-  <si>
-    <t>0.753+/-0.041</t>
-  </si>
-  <si>
-    <t>0.501+/-0.043</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.433+/-0.035</t>
-  </si>
-  <si>
-    <t>0.277+/-0.054</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>3.178+/-0.67</t>
-  </si>
-  <si>
-    <t>0.862+/-0.004</t>
-  </si>
-  <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.871+/-0.019</t>
-  </si>
-  <si>
-    <t>0.493+/-0.044</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.371+/-0.028</t>
-  </si>
-  <si>
-    <t>0.21+/-0.044</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.07+/-0.006</t>
-  </si>
-  <si>
-    <t>0.854+/-0.005</t>
-  </si>
-  <si>
-    <t>0.793+/-0.0</t>
-  </si>
-  <si>
-    <t>0.783</t>
-  </si>
-  <si>
-    <t>0.835+/-0.039</t>
-  </si>
-  <si>
-    <t>0.467+/-0.049</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.341+/-0.026</t>
-  </si>
-  <si>
-    <t>0.201+/-0.037</t>
+    <t>0.406+/-0.037</t>
+  </si>
+  <si>
+    <t>0.24+/-0.051</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>4.766+/-0.784</t>
+  </si>
+  <si>
+    <t>0.902+/-0.002</t>
+  </si>
+  <si>
+    <t>0.844+/-0.0</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.872+/-0.024</t>
+  </si>
+  <si>
+    <t>0.459+/-0.052</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.407+/-0.016</t>
+  </si>
+  <si>
+    <t>0.206+/-0.027</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.078+/-0.008</t>
+  </si>
+  <si>
+    <t>0.896+/-0.001</t>
+  </si>
+  <si>
+    <t>0.84+/-0.0</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.842+/-0.027</t>
+  </si>
+  <si>
+    <t>0.435+/-0.063</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.38+/-0.019</t>
+  </si>
+  <si>
+    <t>0.203+/-0.026</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.09+/-0.006</t>
+  </si>
+  <si>
+    <t>0.857+/-0.001</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689+/-0.028</t>
+  </si>
+  <si>
+    <t>0.545+/-0.171</t>
+  </si>
+  <si>
+    <t>0.08+/-0.011</t>
+  </si>
+  <si>
+    <t>0.062+/-0.023</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>12.334+/-0.92</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.999+/-0.0</t>
+  </si>
+  <si>
+    <t>0.707+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.42+/-0.037</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.151+/-0.017</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.727+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.584+/-0.01</t>
+  </si>
+  <si>
+    <t>0.569+/-0.097</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.053+/-0.004</t>
+  </si>
+  <si>
+    <t>0.049+/-0.01</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.154+/-0.029</t>
+  </si>
+  <si>
+    <t>0.677+/-0.002</t>
+  </si>
+  <si>
+    <t>0.387+/-0.002</t>
+  </si>
+  <si>
+    <t>0.385+/-0.019</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.283+/-0.006</t>
+  </si>
+  <si>
+    <t>0.28+/-0.028</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.633+/-0.001</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.344+/-0.002</t>
+  </si>
+  <si>
+    <t>0.342+/-0.019</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.36+/-0.007</t>
+  </si>
+  <si>
+    <t>0.358+/-0.019</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.771+/-0.007</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.71+/-0.041</t>
+  </si>
+  <si>
+    <t>0.418+/-0.045</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.295+/-0.045</t>
+  </si>
+  <si>
+    <t>0.163+/-0.034</t>
   </si>
   <si>
     <t>0.136</t>
   </si>
   <si>
-    <t>0.081+/-0.004</t>
-  </si>
-  <si>
-    <t>0.812+/-0.001</t>
-  </si>
-  <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.698+/-0.009</t>
-  </si>
-  <si>
-    <t>0.611+/-0.088</t>
+    <t>5.616+/-1.864</t>
+  </si>
+  <si>
+    <t>0.795+/-0.005</t>
+  </si>
+  <si>
+    <t>0.705+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.86+/-0.028</t>
+  </si>
+  <si>
+    <t>0.416+/-0.054</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.311+/-0.019</t>
+  </si>
+  <si>
+    <t>0.161+/-0.028</t>
+  </si>
+  <si>
+    <t>0.091+/-0.001</t>
+  </si>
+  <si>
+    <t>0.78+/-0.004</t>
+  </si>
+  <si>
+    <t>0.711+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.878+/-0.04</t>
+  </si>
+  <si>
+    <t>0.425+/-0.077</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.24+/-0.025</t>
+  </si>
+  <si>
+    <t>0.122+/-0.028</t>
+  </si>
+  <si>
+    <t>0.117+/-0.004</t>
+  </si>
+  <si>
+    <t>0.738+/-0.001</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.815+/-0.019</t>
+  </si>
+  <si>
+    <t>0.648+/-0.082</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.071+/-0.005</t>
+  </si>
+  <si>
+    <t>0.046+/-0.013</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>15.927+/-1.328</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.402+/-0.043</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.996+/-0.0</t>
+  </si>
+  <si>
+    <t>0.168+/-0.023</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>0.697+/-0.001</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.601+/-0.015</t>
+  </si>
+  <si>
+    <t>0.567+/-0.073</t>
   </si>
   <si>
     <t>0.562</t>
   </si>
   <si>
-    <t>0.114+/-0.006</t>
-  </si>
-  <si>
-    <t>0.093+/-0.035</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>10.419+/-0.141</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.984+/-0.01</t>
-  </si>
-  <si>
-    <t>0.466+/-0.089</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>0.99+/-0.016</t>
-  </si>
-  <si>
-    <t>0.135+/-0.045</t>
-  </si>
-  <si>
-    <t>0.093</t>
-  </si>
-  <si>
-    <t>0.851+/-0.001</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.534+/-0.021</t>
-  </si>
-  <si>
-    <t>0.503+/-0.156</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.073+/-0.007</t>
-  </si>
-  <si>
-    <t>0.07+/-0.021</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>0.295+/-0.034</t>
-  </si>
-  <si>
-    <t>0.662+/-0.01</t>
+    <t>0.048+/-0.003</t>
+  </si>
+  <si>
+    <t>0.044+/-0.012</t>
+  </si>
+  <si>
+    <t>0.138+/-0.04</t>
+  </si>
+  <si>
+    <t>0.648+/-0.002</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.397+/-0.003</t>
+  </si>
+  <si>
+    <t>0.395+/-0.028</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.273+/-0.005</t>
+  </si>
+  <si>
+    <t>0.271+/-0.023</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.613+/-0.001</t>
+  </si>
+  <si>
+    <t>0.611+/-0.0</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.369+/-0.002</t>
+  </si>
+  <si>
+    <t>0.366+/-0.018</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.359+/-0.006</t>
+  </si>
+  <si>
+    <t>0.357+/-0.019</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.751+/-0.007</t>
   </si>
   <si>
     <t>0.662+/-0.0</t>
   </si>
   <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.237+/-0.004</t>
-  </si>
-  <si>
-    <t>0.239+/-0.021</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>0.565+/-0.017</t>
-  </si>
-  <si>
-    <t>0.571+/-0.037</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725+/-0.002</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.246+/-0.002</t>
-  </si>
-  <si>
-    <t>0.245+/-0.016</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.402+/-0.009</t>
-  </si>
-  <si>
-    <t>0.4+/-0.04</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.892+/-0.004</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>0.744+/-0.038</t>
-  </si>
-  <si>
-    <t>0.427+/-0.059</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.429+/-0.043</t>
-  </si>
-  <si>
-    <t>0.248+/-0.039</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>3.24+/-0.86</t>
-  </si>
-  <si>
-    <t>0.903+/-0.002</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.863+/-0.028</t>
-  </si>
-  <si>
-    <t>0.45+/-0.054</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.418+/-0.018</t>
-  </si>
-  <si>
-    <t>0.221+/-0.032</t>
-  </si>
-  <si>
-    <t>0.204</t>
-  </si>
-  <si>
-    <t>0.073+/-0.006</t>
-  </si>
-  <si>
-    <t>0.896+/-0.002</t>
-  </si>
-  <si>
-    <t>0.841+/-0.0</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.835+/-0.032</t>
-  </si>
-  <si>
-    <t>0.444+/-0.073</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.383+/-0.024</t>
-  </si>
-  <si>
-    <t>0.207+/-0.029</t>
-  </si>
-  <si>
-    <t>0.165</t>
-  </si>
-  <si>
-    <t>0.087+/-0.005</t>
-  </si>
-  <si>
-    <t>0.857+/-0.001</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.684+/-0.022</t>
-  </si>
-  <si>
-    <t>0.501+/-0.15</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.092+/-0.013</t>
-  </si>
-  <si>
-    <t>0.064+/-0.025</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>8.64+/-0.062</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.401+/-0.056</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.139+/-0.017</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.727+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.584+/-0.007</t>
-  </si>
-  <si>
-    <t>0.558+/-0.082</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.053+/-0.003</t>
-  </si>
-  <si>
-    <t>0.05+/-0.008</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.138+/-0.024</t>
-  </si>
-  <si>
-    <t>0.675+/-0.002</t>
-  </si>
-  <si>
-    <t>0.673+/-0.0</t>
-  </si>
-  <si>
     <t>0.674</t>
   </si>
   <si>
-    <t>0.385+/-0.003</t>
-  </si>
-  <si>
-    <t>0.383+/-0.021</t>
-  </si>
-  <si>
-    <t>0.292+/-0.007</t>
-  </si>
-  <si>
-    <t>0.289+/-0.026</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.631+/-0.001</t>
-  </si>
-  <si>
-    <t>0.63+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.345+/-0.002</t>
-  </si>
-  <si>
-    <t>0.344+/-0.018</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.37+/-0.007</t>
-  </si>
-  <si>
-    <t>0.368+/-0.015</t>
-  </si>
-  <si>
-    <t>0.777+/-0.009</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.757+/-0.023</t>
-  </si>
-  <si>
-    <t>0.411+/-0.055</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.292+/-0.065</t>
-  </si>
-  <si>
-    <t>0.153+/-0.036</t>
-  </si>
-  <si>
-    <t>3.102+/-0.398</t>
-  </si>
-  <si>
-    <t>0.796+/-0.005</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.867+/-0.028</t>
-  </si>
-  <si>
-    <t>0.423+/-0.062</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.313+/-0.018</t>
-  </si>
-  <si>
-    <t>0.164+/-0.028</t>
-  </si>
-  <si>
-    <t>0.074+/-0.007</t>
-  </si>
-  <si>
-    <t>0.78+/-0.004</t>
-  </si>
-  <si>
-    <t>0.712+/-0.0</t>
-  </si>
-  <si>
-    <t>0.884+/-0.041</t>
-  </si>
-  <si>
-    <t>0.433+/-0.086</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.241+/-0.025</t>
-  </si>
-  <si>
-    <t>0.12+/-0.027</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>0.096+/-0.009</t>
-  </si>
-  <si>
-    <t>0.739+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.816+/-0.014</t>
-  </si>
-  <si>
-    <t>0.618+/-0.09</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.072+/-0.005</t>
-  </si>
-  <si>
-    <t>0.043+/-0.01</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>14.824+/-1.186</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.412+/-0.042</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.168+/-0.021</t>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t>0.697+/-0.001</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.6+/-0.016</t>
-  </si>
-  <si>
-    <t>0.573+/-0.083</t>
-  </si>
-  <si>
-    <t>0.048+/-0.003</t>
-  </si>
-  <si>
-    <t>0.044+/-0.012</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.136+/-0.042</t>
-  </si>
-  <si>
-    <t>0.646+/-0.002</t>
-  </si>
-  <si>
-    <t>0.644+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.395+/-0.004</t>
-  </si>
-  <si>
-    <t>0.392+/-0.027</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.281+/-0.005</t>
-  </si>
-  <si>
-    <t>0.279+/-0.025</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>0.613+/-0.001</t>
-  </si>
-  <si>
-    <t>0.612+/-0.0</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.37+/-0.002</t>
-  </si>
-  <si>
-    <t>0.369+/-0.016</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.366+/-0.004</t>
-  </si>
-  <si>
-    <t>0.365+/-0.023</t>
-  </si>
-  <si>
-    <t>0.755+/-0.01</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.766+/-0.035</t>
-  </si>
-  <si>
-    <t>0.408+/-0.025</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>0.297+/-0.058</t>
-  </si>
-  <si>
-    <t>0.155+/-0.037</t>
-  </si>
-  <si>
-    <t>0.113</t>
-  </si>
-  <si>
-    <t>3.253+/-0.534</t>
+    <t>0.733+/-0.039</t>
+  </si>
+  <si>
+    <t>0.385+/-0.057</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.304+/-0.039</t>
+  </si>
+  <si>
+    <t>0.159+/-0.035</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>3.973+/-0.93</t>
   </si>
   <si>
     <t>0.764+/-0.006</t>
   </si>
   <si>
-    <t>0.681+/-0.0</t>
-  </si>
-  <si>
     <t>0.678</t>
   </si>
   <si>
-    <t>0.877+/-0.043</t>
-  </si>
-  <si>
-    <t>0.45+/-0.057</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.274+/-0.032</t>
-  </si>
-  <si>
-    <t>0.149+/-0.025</t>
-  </si>
-  <si>
-    <t>0.081+/-0.007</t>
-  </si>
-  <si>
-    <t>0.75+/-0.004</t>
-  </si>
-  <si>
-    <t>0.683+/-0.0</t>
+    <t>0.875+/-0.045</t>
+  </si>
+  <si>
+    <t>0.448+/-0.05</t>
+  </si>
+  <si>
+    <t>0.275+/-0.035</t>
+  </si>
+  <si>
+    <t>0.149+/-0.02</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.082+/-0.006</t>
+  </si>
+  <si>
+    <t>0.749+/-0.005</t>
+  </si>
+  <si>
+    <t>0.685+/-0.0</t>
   </si>
   <si>
     <t>0.689</t>
   </si>
   <si>
-    <t>0.841+/-0.04</t>
-  </si>
-  <si>
-    <t>0.454+/-0.067</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.235+/-0.024</t>
-  </si>
-  <si>
-    <t>0.131+/-0.025</t>
-  </si>
-  <si>
-    <t>0.096+/-0.006</t>
+    <t>0.834+/-0.041</t>
+  </si>
+  <si>
+    <t>0.467+/-0.073</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.236+/-0.028</t>
+  </si>
+  <si>
+    <t>0.133+/-0.024</t>
+  </si>
+  <si>
+    <t>0.107+/-0.005</t>
   </si>
   <si>
     <t>0.708+/-0.001</t>
@@ -940,25 +979,28 @@
     <t>0.697+/-0.0</t>
   </si>
   <si>
-    <t>0.829+/-0.019</t>
-  </si>
-  <si>
-    <t>0.63+/-0.108</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.064+/-0.005</t>
-  </si>
-  <si>
-    <t>0.043+/-0.011</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>16.159+/-1.395</t>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.832+/-0.021</t>
+  </si>
+  <si>
+    <t>0.626+/-0.113</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.065+/-0.005</t>
+  </si>
+  <si>
+    <t>0.044+/-0.011</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>17.481+/-1.252</t>
   </si>
 </sst>
 </file>
@@ -1359,28 +1401,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2">
-        <v>0.7986820871436255</v>
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1388,31 +1430,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3">
-        <v>0.7986820871436255</v>
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1420,31 +1462,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1452,31 +1494,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1484,31 +1526,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1516,31 +1558,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1548,31 +1590,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1580,31 +1622,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1612,31 +1654,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1644,31 +1686,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1718,31 +1760,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2">
-        <v>0.8500537923614847</v>
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1750,31 +1792,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3">
-        <v>0.8500537923614847</v>
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1782,31 +1824,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1814,31 +1856,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1846,31 +1888,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1878,31 +1920,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1910,31 +1952,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="J8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1942,31 +1984,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1974,31 +2016,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2006,31 +2048,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2080,22 +2122,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
         <v>226</v>
@@ -2103,8 +2145,8 @@
       <c r="I2" t="s">
         <v>235</v>
       </c>
-      <c r="J2">
-        <v>0.7231038192576654</v>
+      <c r="J2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2112,22 +2154,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
         <v>227</v>
@@ -2135,8 +2177,8 @@
       <c r="I3" t="s">
         <v>236</v>
       </c>
-      <c r="J3">
-        <v>0.7231038192576654</v>
+      <c r="J3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2144,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
         <v>237</v>
       </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+      <c r="J4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2176,31 +2218,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
         <v>238</v>
       </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="J5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2208,31 +2250,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
         <v>239</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2240,31 +2282,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
         <v>240</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2272,31 +2314,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
         <v>241</v>
       </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="J8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2304,31 +2346,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
         <v>242</v>
       </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="J9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2336,31 +2378,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="J10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2368,19 +2410,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
         <v>225</v>
@@ -2389,10 +2431,10 @@
         <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="J11" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2442,31 +2484,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J2">
-        <v>0.6919042495965573</v>
+        <v>309</v>
+      </c>
+      <c r="J2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2474,31 +2516,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3">
-        <v>0.6919042495965573</v>
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2506,31 +2548,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2538,31 +2580,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="J5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2570,31 +2612,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="J6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2602,31 +2644,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>309</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>314</v>
+      </c>
+      <c r="J7" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2634,31 +2676,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="J8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2666,31 +2708,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>316</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2698,31 +2740,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>299</v>
+      </c>
+      <c r="J10" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2730,31 +2772,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>286</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="J11" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas.xlsx
@@ -91,721 +91,724 @@
     <t>0.996+/-0.001</t>
   </si>
   <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
-    <t>0.793</t>
-  </si>
-  <si>
-    <t>0.989+/-0.007</t>
-  </si>
-  <si>
-    <t>0.498+/-0.054</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.992+/-0.012</t>
-  </si>
-  <si>
-    <t>0.174+/-0.034</t>
-  </si>
-  <si>
-    <t>0.163</t>
+    <t>0.797+/-0.0</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.99+/-0.008</t>
+  </si>
+  <si>
+    <t>0.493+/-0.071</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>0.989+/-0.013</t>
+  </si>
+  <si>
+    <t>0.176+/-0.041</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803+/-0.001</t>
+  </si>
+  <si>
+    <t>0.802+/-0.0</t>
+  </si>
+  <si>
+    <t>0.564+/-0.011</t>
+  </si>
+  <si>
+    <t>0.549+/-0.112</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.092+/-0.004</t>
+  </si>
+  <si>
+    <t>0.088+/-0.032</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.215+/-0.021</t>
+  </si>
+  <si>
+    <t>0.556+/-0.014</t>
+  </si>
+  <si>
+    <t>0.555+/-0.0</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.263+/-0.004</t>
+  </si>
+  <si>
+    <t>0.263+/-0.014</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.67+/-0.02</t>
+  </si>
+  <si>
+    <t>0.669+/-0.028</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.684+/-0.004</t>
+  </si>
+  <si>
+    <t>0.679+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.304+/-0.002</t>
+  </si>
+  <si>
+    <t>0.297+/-0.026</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.442+/-0.013</t>
+  </si>
+  <si>
+    <t>0.435+/-0.043</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.857+/-0.005</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>0.74+/-0.031</t>
+  </si>
+  <si>
+    <t>0.498+/-0.039</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.448+/-0.052</t>
+  </si>
+  <si>
+    <t>0.305+/-0.035</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>3.044+/-0.637</t>
+  </si>
+  <si>
+    <t>0.862+/-0.004</t>
+  </si>
+  <si>
+    <t>0.795+/-0.0</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.871+/-0.016</t>
+  </si>
+  <si>
+    <t>0.476+/-0.053</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.371+/-0.026</t>
+  </si>
+  <si>
+    <t>0.204+/-0.043</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.08+/-0.015</t>
+  </si>
+  <si>
+    <t>0.853+/-0.005</t>
+  </si>
+  <si>
+    <t>0.793+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.834+/-0.039</t>
+  </si>
+  <si>
+    <t>0.467+/-0.058</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.341+/-0.026</t>
+  </si>
+  <si>
+    <t>0.2+/-0.043</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.079+/-0.003</t>
+  </si>
+  <si>
+    <t>0.812+/-0.001</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.698+/-0.009</t>
+  </si>
+  <si>
+    <t>0.611+/-0.088</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.114+/-0.006</t>
+  </si>
+  <si>
+    <t>0.093+/-0.035</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>10.246+/-0.594</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.982+/-0.009</t>
+  </si>
+  <si>
+    <t>0.474+/-0.075</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.993+/-0.014</t>
+  </si>
+  <si>
+    <t>0.134+/-0.033</t>
+  </si>
+  <si>
+    <t>0.129</t>
   </si>
   <si>
     <t>0.003+/-0.0</t>
   </si>
   <si>
-    <t>0.803+/-0.001</t>
-  </si>
-  <si>
-    <t>0.802+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.562+/-0.01</t>
-  </si>
-  <si>
-    <t>0.549+/-0.106</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.092+/-0.004</t>
-  </si>
-  <si>
-    <t>0.088+/-0.031</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>0.228+/-0.019</t>
-  </si>
-  <si>
-    <t>0.556+/-0.014</t>
-  </si>
-  <si>
-    <t>0.556+/-0.0</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.263+/-0.004</t>
-  </si>
-  <si>
-    <t>0.263+/-0.014</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.669+/-0.021</t>
-  </si>
-  <si>
-    <t>0.668+/-0.029</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.683+/-0.005</t>
-  </si>
-  <si>
-    <t>0.68+/-0.0</t>
+    <t>0.851+/-0.001</t>
+  </si>
+  <si>
+    <t>0.521+/-0.022</t>
+  </si>
+  <si>
+    <t>0.499+/-0.141</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.07+/-0.007</t>
+  </si>
+  <si>
+    <t>0.068+/-0.017</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.303+/-0.029</t>
+  </si>
+  <si>
+    <t>0.658+/-0.012</t>
+  </si>
+  <si>
+    <t>0.657+/-0.0</t>
+  </si>
+  <si>
+    <t>0.641</t>
+  </si>
+  <si>
+    <t>0.236+/-0.004</t>
+  </si>
+  <si>
+    <t>0.237+/-0.021</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.572+/-0.017</t>
+  </si>
+  <si>
+    <t>0.577+/-0.038</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.733+/-0.003</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.729</t>
+  </si>
+  <si>
+    <t>0.253+/-0.002</t>
+  </si>
+  <si>
+    <t>0.251+/-0.02</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>0.399+/-0.008</t>
+  </si>
+  <si>
+    <t>0.398+/-0.038</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.887+/-0.005</t>
+  </si>
+  <si>
+    <t>0.841+/-0.0</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.738+/-0.045</t>
+  </si>
+  <si>
+    <t>0.448+/-0.059</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.386+/-0.061</t>
+  </si>
+  <si>
+    <t>0.239+/-0.043</t>
+  </si>
+  <si>
+    <t>3.728+/-0.748</t>
+  </si>
+  <si>
+    <t>0.903+/-0.002</t>
+  </si>
+  <si>
+    <t>0.843+/-0.0</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.869+/-0.024</t>
+  </si>
+  <si>
+    <t>0.449+/-0.072</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.415+/-0.018</t>
+  </si>
+  <si>
+    <t>0.204+/-0.04</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.093+/-0.005</t>
+  </si>
+  <si>
+    <t>0.896+/-0.001</t>
+  </si>
+  <si>
+    <t>0.842+/-0.0</t>
+  </si>
+  <si>
+    <t>0.839+/-0.033</t>
+  </si>
+  <si>
+    <t>0.443+/-0.056</t>
+  </si>
+  <si>
+    <t>0.382+/-0.022</t>
+  </si>
+  <si>
+    <t>0.205+/-0.027</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.112+/-0.001</t>
+  </si>
+  <si>
+    <t>0.856+/-0.001</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.686+/-0.025</t>
+  </si>
+  <si>
+    <t>0.539+/-0.179</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.079+/-0.011</t>
+  </si>
+  <si>
+    <t>0.061+/-0.024</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>12.313+/-0.575</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.999+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.416+/-0.035</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.151+/-0.014</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.727+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.584+/-0.01</t>
+  </si>
+  <si>
+    <t>0.562+/-0.094</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.052+/-0.004</t>
+  </si>
+  <si>
+    <t>0.049+/-0.01</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.173+/-0.029</t>
+  </si>
+  <si>
+    <t>0.676+/-0.002</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
   </si>
   <si>
     <t>0.68</t>
   </si>
   <si>
-    <t>0.303+/-0.003</t>
-  </si>
-  <si>
-    <t>0.298+/-0.027</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.442+/-0.013</t>
-  </si>
-  <si>
-    <t>0.435+/-0.044</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.855+/-0.007</t>
-  </si>
-  <si>
-    <t>0.794+/-0.0</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>0.72+/-0.023</t>
-  </si>
-  <si>
-    <t>0.48+/-0.048</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.459+/-0.045</t>
-  </si>
-  <si>
-    <t>0.299+/-0.06</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>4.024+/-1.603</t>
-  </si>
-  <si>
-    <t>0.862+/-0.004</t>
-  </si>
-  <si>
-    <t>0.796+/-0.0</t>
-  </si>
-  <si>
-    <t>0.871+/-0.011</t>
-  </si>
-  <si>
-    <t>0.485+/-0.059</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.372+/-0.026</t>
-  </si>
-  <si>
-    <t>0.214+/-0.043</t>
-  </si>
-  <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>0.081+/-0.009</t>
-  </si>
-  <si>
-    <t>0.853+/-0.006</t>
-  </si>
-  <si>
-    <t>0.784</t>
-  </si>
-  <si>
-    <t>0.831+/-0.044</t>
-  </si>
-  <si>
-    <t>0.485+/-0.054</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.339+/-0.035</t>
-  </si>
-  <si>
-    <t>0.207+/-0.034</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>0.096+/-0.009</t>
-  </si>
-  <si>
-    <t>0.812+/-0.001</t>
-  </si>
-  <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.7+/-0.011</t>
-  </si>
-  <si>
-    <t>0.609+/-0.095</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.115+/-0.007</t>
-  </si>
-  <si>
-    <t>0.092+/-0.034</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>14.609+/-1.286</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
+    <t>0.386+/-0.003</t>
+  </si>
+  <si>
+    <t>0.383+/-0.017</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.288+/-0.006</t>
+  </si>
+  <si>
+    <t>0.283+/-0.026</t>
+  </si>
+  <si>
+    <t>0.299</t>
+  </si>
+  <si>
+    <t>0.01+/-0.002</t>
+  </si>
+  <si>
+    <t>0.631+/-0.001</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.344+/-0.003</t>
+  </si>
+  <si>
+    <t>0.341+/-0.019</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.366+/-0.007</t>
+  </si>
+  <si>
+    <t>0.362+/-0.018</t>
+  </si>
+  <si>
+    <t>0.774+/-0.008</t>
+  </si>
+  <si>
+    <t>0.7+/-0.0</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.748+/-0.046</t>
+  </si>
+  <si>
+    <t>0.393+/-0.036</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.283+/-0.06</t>
+  </si>
+  <si>
+    <t>0.155+/-0.059</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>6.86+/-1.41</t>
+  </si>
+  <si>
+    <t>0.795+/-0.005</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.862+/-0.029</t>
+  </si>
+  <si>
+    <t>0.42+/-0.048</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.312+/-0.02</t>
+  </si>
+  <si>
+    <t>0.166+/-0.025</t>
+  </si>
+  <si>
+    <t>0.123+/-0.031</t>
+  </si>
+  <si>
+    <t>0.78+/-0.004</t>
+  </si>
+  <si>
+    <t>0.711+/-0.0</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.872+/-0.04</t>
+  </si>
+  <si>
+    <t>0.427+/-0.09</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.242+/-0.025</t>
+  </si>
+  <si>
+    <t>0.12+/-0.025</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.15+/-0.02</t>
+  </si>
+  <si>
+    <t>0.738+/-0.001</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.812+/-0.02</t>
+  </si>
+  <si>
+    <t>0.651+/-0.088</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.069+/-0.005</t>
+  </si>
+  <si>
+    <t>0.046+/-0.012</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>18.974+/-1.032</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.982+/-0.009</t>
-  </si>
-  <si>
-    <t>0.468+/-0.073</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.994+/-0.013</t>
-  </si>
-  <si>
-    <t>0.123+/-0.032</t>
-  </si>
-  <si>
-    <t>0.097</t>
-  </si>
-  <si>
-    <t>0.004+/-0.002</t>
-  </si>
-  <si>
-    <t>0.851+/-0.001</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.522+/-0.022</t>
-  </si>
-  <si>
-    <t>0.502+/-0.141</t>
-  </si>
-  <si>
-    <t>0.321</t>
-  </si>
-  <si>
-    <t>0.07+/-0.007</t>
-  </si>
-  <si>
-    <t>0.067+/-0.016</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.356+/-0.049</t>
-  </si>
-  <si>
-    <t>0.676+/-0.011</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.244+/-0.005</t>
-  </si>
-  <si>
-    <t>0.245+/-0.02</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.553+/-0.014</t>
-  </si>
-  <si>
-    <t>0.554+/-0.035</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.009+/-0.005</t>
-  </si>
-  <si>
-    <t>0.737+/-0.003</t>
-  </si>
-  <si>
-    <t>0.737+/-0.0</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.253+/-0.003</t>
-  </si>
-  <si>
-    <t>0.252+/-0.022</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.384+/-0.009</t>
-  </si>
-  <si>
-    <t>0.384+/-0.044</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.009+/-0.002</t>
-  </si>
-  <si>
-    <t>0.888+/-0.004</t>
-  </si>
-  <si>
-    <t>0.838+/-0.0</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.728+/-0.028</t>
-  </si>
-  <si>
-    <t>0.428+/-0.049</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.406+/-0.037</t>
-  </si>
-  <si>
-    <t>0.24+/-0.051</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>4.766+/-0.784</t>
-  </si>
-  <si>
-    <t>0.902+/-0.002</t>
-  </si>
-  <si>
-    <t>0.844+/-0.0</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.872+/-0.024</t>
-  </si>
-  <si>
-    <t>0.459+/-0.052</t>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.412+/-0.042</t>
   </si>
   <si>
     <t>0.407</t>
   </si>
   <si>
-    <t>0.407+/-0.016</t>
-  </si>
-  <si>
-    <t>0.206+/-0.027</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.078+/-0.008</t>
-  </si>
-  <si>
-    <t>0.896+/-0.001</t>
-  </si>
-  <si>
-    <t>0.84+/-0.0</t>
-  </si>
-  <si>
-    <t>0.834</t>
-  </si>
-  <si>
-    <t>0.842+/-0.027</t>
-  </si>
-  <si>
-    <t>0.435+/-0.063</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.38+/-0.019</t>
-  </si>
-  <si>
-    <t>0.203+/-0.026</t>
-  </si>
-  <si>
-    <t>0.147</t>
-  </si>
-  <si>
-    <t>0.09+/-0.006</t>
-  </si>
-  <si>
-    <t>0.857+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689+/-0.028</t>
-  </si>
-  <si>
-    <t>0.545+/-0.171</t>
-  </si>
-  <si>
-    <t>0.08+/-0.011</t>
-  </si>
-  <si>
-    <t>0.062+/-0.023</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>12.334+/-0.92</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.42+/-0.037</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.151+/-0.017</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.727+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.584+/-0.01</t>
-  </si>
-  <si>
-    <t>0.569+/-0.097</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.053+/-0.004</t>
-  </si>
-  <si>
-    <t>0.049+/-0.01</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.154+/-0.029</t>
-  </si>
-  <si>
-    <t>0.677+/-0.002</t>
-  </si>
-  <si>
-    <t>0.387+/-0.002</t>
-  </si>
-  <si>
-    <t>0.385+/-0.019</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.283+/-0.006</t>
-  </si>
-  <si>
-    <t>0.28+/-0.028</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.633+/-0.001</t>
-  </si>
-  <si>
-    <t>0.631+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.344+/-0.002</t>
-  </si>
-  <si>
-    <t>0.342+/-0.019</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.36+/-0.007</t>
-  </si>
-  <si>
-    <t>0.358+/-0.019</t>
-  </si>
-  <si>
-    <t>0.383</t>
-  </si>
-  <si>
-    <t>0.771+/-0.007</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.71+/-0.041</t>
-  </si>
-  <si>
-    <t>0.418+/-0.045</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.295+/-0.045</t>
-  </si>
-  <si>
-    <t>0.163+/-0.034</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>5.616+/-1.864</t>
-  </si>
-  <si>
-    <t>0.795+/-0.005</t>
-  </si>
-  <si>
-    <t>0.705+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.86+/-0.028</t>
-  </si>
-  <si>
-    <t>0.416+/-0.054</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.311+/-0.019</t>
-  </si>
-  <si>
-    <t>0.161+/-0.028</t>
-  </si>
-  <si>
-    <t>0.091+/-0.001</t>
-  </si>
-  <si>
-    <t>0.78+/-0.004</t>
-  </si>
-  <si>
-    <t>0.711+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.878+/-0.04</t>
-  </si>
-  <si>
-    <t>0.425+/-0.077</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.24+/-0.025</t>
-  </si>
-  <si>
-    <t>0.122+/-0.028</t>
-  </si>
-  <si>
-    <t>0.117+/-0.004</t>
-  </si>
-  <si>
-    <t>0.738+/-0.001</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.815+/-0.019</t>
-  </si>
-  <si>
-    <t>0.648+/-0.082</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.071+/-0.005</t>
-  </si>
-  <si>
-    <t>0.046+/-0.013</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>15.927+/-1.328</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.669</t>
-  </si>
-  <si>
-    <t>0.402+/-0.043</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
     <t>0.996+/-0.0</t>
   </si>
   <si>
-    <t>0.168+/-0.023</t>
-  </si>
-  <si>
-    <t>0.159</t>
+    <t>0.168+/-0.021</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.004+/-0.001</t>
   </si>
   <si>
     <t>0.697+/-0.001</t>
@@ -817,13 +820,10 @@
     <t>0.695</t>
   </si>
   <si>
-    <t>0.601+/-0.015</t>
-  </si>
-  <si>
-    <t>0.567+/-0.073</t>
-  </si>
-  <si>
-    <t>0.562</t>
+    <t>0.6+/-0.016</t>
+  </si>
+  <si>
+    <t>0.573+/-0.083</t>
   </si>
   <si>
     <t>0.048+/-0.003</t>
@@ -832,67 +832,67 @@
     <t>0.044+/-0.012</t>
   </si>
   <si>
-    <t>0.138+/-0.04</t>
-  </si>
-  <si>
-    <t>0.648+/-0.002</t>
-  </si>
-  <si>
-    <t>0.647+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.397+/-0.003</t>
-  </si>
-  <si>
-    <t>0.395+/-0.028</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.273+/-0.005</t>
-  </si>
-  <si>
-    <t>0.271+/-0.023</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
+    <t>0.169+/-0.051</t>
+  </si>
+  <si>
+    <t>0.646+/-0.002</t>
+  </si>
+  <si>
+    <t>0.644+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.395+/-0.004</t>
+  </si>
+  <si>
+    <t>0.392+/-0.027</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.281+/-0.005</t>
+  </si>
+  <si>
+    <t>0.279+/-0.025</t>
+  </si>
+  <si>
+    <t>0.286</t>
   </si>
   <si>
     <t>0.613+/-0.001</t>
   </si>
   <si>
-    <t>0.611+/-0.0</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.369+/-0.002</t>
-  </si>
-  <si>
-    <t>0.366+/-0.018</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.359+/-0.006</t>
-  </si>
-  <si>
-    <t>0.357+/-0.019</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.751+/-0.007</t>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.37+/-0.002</t>
+  </si>
+  <si>
+    <t>0.369+/-0.016</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.366+/-0.004</t>
+  </si>
+  <si>
+    <t>0.365+/-0.023</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.755+/-0.011</t>
   </si>
   <si>
     <t>0.662+/-0.0</t>
@@ -901,25 +901,25 @@
     <t>0.674</t>
   </si>
   <si>
-    <t>0.733+/-0.039</t>
-  </si>
-  <si>
-    <t>0.385+/-0.057</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.304+/-0.039</t>
-  </si>
-  <si>
-    <t>0.159+/-0.035</t>
-  </si>
-  <si>
-    <t>0.127</t>
-  </si>
-  <si>
-    <t>3.973+/-0.93</t>
+    <t>0.736+/-0.052</t>
+  </si>
+  <si>
+    <t>0.404+/-0.057</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.328+/-0.059</t>
+  </si>
+  <si>
+    <t>0.184+/-0.043</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>18.094+/-5.474</t>
   </si>
   <si>
     <t>0.764+/-0.006</t>
@@ -928,49 +928,55 @@
     <t>0.678</t>
   </si>
   <si>
-    <t>0.875+/-0.045</t>
-  </si>
-  <si>
-    <t>0.448+/-0.05</t>
-  </si>
-  <si>
-    <t>0.275+/-0.035</t>
-  </si>
-  <si>
-    <t>0.149+/-0.02</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>0.082+/-0.006</t>
-  </si>
-  <si>
-    <t>0.749+/-0.005</t>
-  </si>
-  <si>
-    <t>0.685+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.834+/-0.041</t>
-  </si>
-  <si>
-    <t>0.467+/-0.073</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.236+/-0.028</t>
-  </si>
-  <si>
-    <t>0.133+/-0.024</t>
-  </si>
-  <si>
-    <t>0.107+/-0.005</t>
+    <t>0.878+/-0.043</t>
+  </si>
+  <si>
+    <t>0.439+/-0.05</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.273+/-0.032</t>
+  </si>
+  <si>
+    <t>0.147+/-0.024</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.141+/-0.009</t>
+  </si>
+  <si>
+    <t>0.75+/-0.004</t>
+  </si>
+  <si>
+    <t>0.683+/-0.0</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.838+/-0.051</t>
+  </si>
+  <si>
+    <t>0.455+/-0.064</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.236+/-0.024</t>
+  </si>
+  <si>
+    <t>0.13+/-0.021</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>0.188+/-0.016</t>
   </si>
   <si>
     <t>0.708+/-0.001</t>
@@ -979,28 +985,22 @@
     <t>0.697+/-0.0</t>
   </si>
   <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.832+/-0.021</t>
-  </si>
-  <si>
-    <t>0.626+/-0.113</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.065+/-0.005</t>
-  </si>
-  <si>
-    <t>0.044+/-0.011</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>17.481+/-1.252</t>
+    <t>0.829+/-0.019</t>
+  </si>
+  <si>
+    <t>0.63+/-0.108</t>
+  </si>
+  <si>
+    <t>0.064+/-0.005</t>
+  </si>
+  <si>
+    <t>0.043+/-0.011</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>29.087+/-2.261</t>
   </si>
 </sst>
 </file>
@@ -1407,19 +1407,19 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
         <v>91</v>
@@ -1439,19 +1439,19 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
@@ -1468,19 +1468,19 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
         <v>83</v>
@@ -1500,19 +1500,19 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
         <v>84</v>
@@ -1532,19 +1532,19 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
         <v>85</v>
@@ -1564,19 +1564,19 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
         <v>86</v>
@@ -1596,19 +1596,19 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
         <v>87</v>
@@ -1628,19 +1628,19 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
         <v>88</v>
@@ -1660,19 +1660,19 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
         <v>89</v>
@@ -1692,19 +1692,19 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
         <v>90</v>
@@ -1766,25 +1766,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1795,28 +1795,28 @@
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1827,25 +1827,25 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
         <v>102</v>
@@ -1859,28 +1859,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1891,28 +1891,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1923,28 +1923,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1955,28 +1955,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1987,28 +1987,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2019,28 +2019,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2048,31 +2048,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2122,31 +2122,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2154,31 +2154,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2186,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2221,28 +2221,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
         <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2253,28 +2253,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
         <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2285,28 +2285,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
         <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2320,25 +2320,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
         <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2349,28 +2349,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
         <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2381,28 +2381,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2413,28 +2413,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2484,19 +2484,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
         <v>291</v>
@@ -2505,10 +2505,10 @@
         <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2516,31 +2516,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
         <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
         <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2548,19 +2548,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
         <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
         <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
         <v>293</v>
@@ -2569,10 +2569,10 @@
         <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J4" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2583,16 +2583,16 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
         <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
         <v>294</v>
@@ -2601,10 +2601,10 @@
         <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2618,13 +2618,13 @@
         <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
         <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G6" t="s">
         <v>295</v>
@@ -2633,10 +2633,10 @@
         <v>304</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2650,25 +2650,25 @@
         <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G7" t="s">
         <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="I7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2688,16 +2688,16 @@
         <v>278</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
         <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J8" t="s">
         <v>324</v>
@@ -2720,16 +2720,16 @@
         <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
         <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J9" t="s">
         <v>325</v>
@@ -2746,22 +2746,22 @@
         <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
         <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G10" t="s">
         <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I10" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="J10" t="s">
         <v>326</v>
@@ -2772,28 +2772,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
         <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
         <v>300</v>
       </c>
       <c r="H11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J11" t="s">
         <v>327</v>
